--- a/rider/weekly/2016_35.xlsx
+++ b/rider/weekly/2016_35.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>252</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>99.53</c:v>
+                  <c:v>100.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.47</c:v>
+                  <c:v>102.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.88</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.27</c:v>
+                  <c:v>105.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.37</c:v>
+                  <c:v>102.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.72</c:v>
+                  <c:v>48.86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.37</c:v>
+                  <c:v>37.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="D2">
-        <v>99.53</v>
+        <v>100.11</v>
       </c>
       <c r="E2">
         <v>78.17</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D3">
-        <v>102.47</v>
+        <v>102.36</v>
       </c>
       <c r="E3">
         <v>78.33</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4">
-        <v>107.88</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>78.49</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D5">
-        <v>106.27</v>
+        <v>105.69</v>
       </c>
       <c r="E5">
         <v>78.65</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>102.37</v>
+        <v>102.65</v>
       </c>
       <c r="E6">
         <v>78.81</v>
@@ -898,7 +898,7 @@
         <v>97</v>
       </c>
       <c r="D7">
-        <v>48.72</v>
+        <v>48.86</v>
       </c>
       <c r="E7">
         <v>78.97</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>37.37</v>
+        <v>37.43</v>
       </c>
       <c r="E8">
         <v>79.14</v>

--- a/rider/weekly/2016_35.xlsx
+++ b/rider/weekly/2016_35.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>247</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100.11</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.36</c:v>
+                  <c:v>101.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>107.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.69</c:v>
+                  <c:v>106.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.65</c:v>
+                  <c:v>102.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.86</c:v>
+                  <c:v>48.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.43</c:v>
+                  <c:v>37.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D2">
-        <v>100.11</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>78.17</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3">
-        <v>102.36</v>
+        <v>101.98</v>
       </c>
       <c r="E3">
         <v>78.33</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="E4">
         <v>78.49</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5">
-        <v>105.69</v>
+        <v>106.27</v>
       </c>
       <c r="E5">
         <v>78.65</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>102.65</v>
+        <v>102.55</v>
       </c>
       <c r="E6">
         <v>78.81</v>
@@ -898,7 +898,7 @@
         <v>97</v>
       </c>
       <c r="D7">
-        <v>48.86</v>
+        <v>48.66</v>
       </c>
       <c r="E7">
         <v>78.97</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>37.43</v>
+        <v>37.49</v>
       </c>
       <c r="E8">
         <v>79.14</v>

--- a/rider/weekly/2016_35.xlsx
+++ b/rider/weekly/2016_35.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>226</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.98</c:v>
+                  <c:v>102.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107.6</c:v>
+                  <c:v>107.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.27</c:v>
+                  <c:v>105.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.55</c:v>
+                  <c:v>102.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.66</c:v>
+                  <c:v>48.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.49</c:v>
+                  <c:v>37.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="E2">
         <v>78.17</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D3">
-        <v>101.98</v>
+        <v>102.6</v>
       </c>
       <c r="E3">
         <v>78.33</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>107.6</v>
+        <v>107.13</v>
       </c>
       <c r="E4">
         <v>78.49</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>106.27</v>
+        <v>105.94</v>
       </c>
       <c r="E5">
         <v>78.65</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D6">
-        <v>102.55</v>
+        <v>102.76</v>
       </c>
       <c r="E6">
         <v>78.81</v>
@@ -898,7 +898,7 @@
         <v>97</v>
       </c>
       <c r="D7">
-        <v>48.66</v>
+        <v>48.88</v>
       </c>
       <c r="E7">
         <v>78.97</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>37.49</v>
+        <v>37.45</v>
       </c>
       <c r="E8">
         <v>79.14</v>
